--- a/tabular/eve/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-proto-refseqs-side-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AD4A27-AB48-D744-A9E6-F7FF4F678778}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854C7960-252B-CF4C-AB51-E39E4FE9337D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440" xr2:uid="{20BA0BB9-F1F9-C54D-8563-9A004E1B48AC}"/>
+    <workbookView xWindow="2140" yWindow="8700" windowWidth="27240" windowHeight="16440" xr2:uid="{20BA0BB9-F1F9-C54D-8563-9A004E1B48AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="40">
   <si>
     <t>Protoparvovirus</t>
   </si>
@@ -50,9 +50,6 @@
     <t>reference</t>
   </si>
   <si>
-    <t>fasta-refseqs-epv</t>
-  </si>
-  <si>
     <t>Monodelphis domestica</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>proto.102-tamandua</t>
+  </si>
+  <si>
+    <t>fasta-refseqs-proto-epv-con</t>
   </si>
 </sst>
 </file>
@@ -583,93 +583,94 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
     <col min="19" max="19" width="21.33203125" customWidth="1"/>
     <col min="20" max="20" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -714,10 +715,10 @@
         <v>2</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>0</v>
@@ -725,13 +726,13 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -779,10 +780,10 @@
         <v>2</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>0</v>
@@ -790,13 +791,13 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
@@ -844,10 +845,10 @@
         <v>2</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>0</v>
@@ -855,13 +856,13 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -909,10 +910,10 @@
         <v>2</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>0</v>
@@ -920,13 +921,13 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="6">
         <v>101</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -965,17 +966,17 @@
         <v>2</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>0</v>
@@ -983,13 +984,13 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="6">
         <v>102</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -1033,12 +1034,14 @@
       <c r="Q7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="S7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>0</v>
@@ -1046,13 +1049,13 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="6">
         <v>103</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
@@ -1091,17 +1094,17 @@
         <v>2</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>0</v>
@@ -1109,13 +1112,13 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="6">
         <v>107</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>
@@ -1154,17 +1157,17 @@
         <v>2</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>0</v>
@@ -1172,13 +1175,13 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="6">
         <v>108</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>4</v>
@@ -1226,10 +1229,10 @@
         <v>2</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>0</v>
@@ -1237,13 +1240,13 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="6">
         <v>111</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>4</v>
@@ -1291,10 +1294,10 @@
         <v>2</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>0</v>

--- a/tabular/eve/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-proto-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854C7960-252B-CF4C-AB51-E39E4FE9337D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3978EE0-B086-8448-AD77-B523B5D8F0EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2140" yWindow="8700" windowWidth="27240" windowHeight="16440" xr2:uid="{20BA0BB9-F1F9-C54D-8563-9A004E1B48AC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="42">
   <si>
     <t>Protoparvovirus</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>fasta-refseqs-proto-epv-con</t>
+  </si>
+  <si>
+    <t>virus_subfamily</t>
+  </si>
+  <si>
+    <t>Parvovirinae</t>
   </si>
 </sst>
 </file>
@@ -580,21 +586,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C4DF32-17F9-A440-8329-30847CBE3C7F}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R6" sqref="A1:V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="19" max="19" width="21.33203125" customWidth="1"/>
-    <col min="20" max="20" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="21" max="21" width="21.33203125" customWidth="1"/>
+    <col min="22" max="22" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
@@ -611,55 +619,58 @@
         <v>28</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="7" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -675,11 +686,11 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>3</v>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
@@ -699,13 +710,13 @@
       <c r="M2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="N2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -714,17 +725,20 @@
       <c r="R2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -740,11 +754,11 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>3</v>
+      <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>3</v>
@@ -764,13 +778,13 @@
       <c r="M3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="N3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -779,17 +793,20 @@
       <c r="R3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -805,11 +822,11 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>3</v>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>3</v>
@@ -829,13 +846,13 @@
       <c r="M4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="N4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -844,17 +861,20 @@
       <c r="R4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -870,11 +890,11 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>3</v>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>3</v>
@@ -894,13 +914,13 @@
       <c r="M5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="N5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Q5" s="1" t="s">
@@ -909,17 +929,20 @@
       <c r="R5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -935,11 +958,11 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>3</v>
+      <c r="F6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>3</v>
@@ -959,30 +982,33 @@
       <c r="M6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P6" s="1" t="s">
+      <c r="N6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="1"/>
+      <c r="U6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -998,11 +1024,11 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>3</v>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>3</v>
@@ -1022,32 +1048,35 @@
       <c r="M7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="1" t="s">
+      <c r="N7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1063,11 +1092,11 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>3</v>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>3</v>
@@ -1087,30 +1116,33 @@
       <c r="M8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="N8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="2" t="s">
+      <c r="T8" s="1"/>
+      <c r="U8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1126,11 +1158,11 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>3</v>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>3</v>
@@ -1150,30 +1182,33 @@
       <c r="M9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="1" t="s">
+      <c r="N9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="2" t="s">
+      <c r="T9" s="1"/>
+      <c r="U9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="V9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -1189,11 +1224,11 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>3</v>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>3</v>
@@ -1213,13 +1248,13 @@
       <c r="M10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P10" s="1" t="s">
+      <c r="N10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Q10" s="1" t="s">
@@ -1228,17 +1263,20 @@
       <c r="R10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="S10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -1254,11 +1292,11 @@
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>3</v>
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>3</v>
@@ -1278,13 +1316,13 @@
       <c r="M11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P11" s="1" t="s">
+      <c r="N11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Q11" s="1" t="s">
@@ -1293,18 +1331,21 @@
       <c r="R11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W11">
     <sortCondition ref="B2:B11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabular/eve/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-proto-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3978EE0-B086-8448-AD77-B523B5D8F0EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36F040E-0F04-7645-982F-C9D5C448FBF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2140" yWindow="8700" windowWidth="27240" windowHeight="16440" xr2:uid="{20BA0BB9-F1F9-C54D-8563-9A004E1B48AC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="44">
   <si>
     <t>Protoparvovirus</t>
   </si>
@@ -159,20 +159,19 @@
   </si>
   <si>
     <t>Parvovirinae</t>
+  </si>
+  <si>
+    <t>assign_clade</t>
+  </si>
+  <si>
+    <t>assign_subclade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,14 +198,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,27 +241,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C4DF32-17F9-A440-8329-30847CBE3C7F}">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R6" sqref="A1:V11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="A1:X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -597,755 +586,827 @@
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
-    <col min="21" max="21" width="21.33203125" customWidth="1"/>
-    <col min="22" max="22" width="26.33203125" customWidth="1"/>
+    <col min="7" max="9" width="18.1640625" customWidth="1"/>
+    <col min="23" max="23" width="21.33203125" customWidth="1"/>
+    <col min="24" max="24" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="R1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="X1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="H2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="2" t="s">
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="X3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" s="2" t="s">
+      <c r="H4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="X4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U5" s="2" t="s">
+      <c r="H5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="X5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>101</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R6" s="1" t="s">
+      <c r="H6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="U6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="5">
+        <v>102</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5">
+        <v>103</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>35</v>
+      <c r="U8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="6">
-        <v>102</v>
-      </c>
-      <c r="C7" s="5" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5">
+        <v>107</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="H9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="5">
+        <v>108</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="F10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="5">
+        <v>111</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="6">
-        <v>103</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T8" s="1"/>
-      <c r="U8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="6">
-        <v>107</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="6">
-        <v>108</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="H11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="6">
-        <v>111</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V11" s="2" t="s">
+      <c r="X11" s="4" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y11">
     <sortCondition ref="B2:B11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabular/eve/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-proto-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36F040E-0F04-7645-982F-C9D5C448FBF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2BE4F0-1032-BF41-A5A9-3F4EAD21C60D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="8700" windowWidth="27240" windowHeight="16440" xr2:uid="{20BA0BB9-F1F9-C54D-8563-9A004E1B48AC}"/>
+    <workbookView xWindow="17880" yWindow="9400" windowWidth="27240" windowHeight="16440" xr2:uid="{20BA0BB9-F1F9-C54D-8563-9A004E1B48AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -578,7 +578,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="A1:X11"/>
+      <selection activeCell="A8" sqref="A8:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-proto-refseqs-side-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Dropbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2855EC45-A88C-7E4E-908E-C0232D6D9506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6775ABB5-EDE9-0749-B7DE-9F83B821C707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{C5AF922A-17B4-3E45-B32D-16E24B21D133}"/>
   </bookViews>
@@ -34,209 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="104">
-  <si>
-    <t>Proto.1-Rattus</t>
-  </si>
-  <si>
-    <t>Proto.3-Apodemus</t>
-  </si>
-  <si>
-    <t>Proto.2-Mus_spic.</t>
-  </si>
-  <si>
-    <t>Proto.4-Mus_spret.</t>
-  </si>
-  <si>
-    <t>Proto.103-Graphiurus</t>
-  </si>
-  <si>
-    <t>Proto.107-Hydrochoerus</t>
-  </si>
-  <si>
-    <t>Proto.108-Dinomys</t>
-  </si>
-  <si>
-    <t>Proto.109-Cavia</t>
-  </si>
-  <si>
-    <t>Proto.111-Afrotheria</t>
-  </si>
-  <si>
-    <t>Proto.99-Capromys</t>
-  </si>
-  <si>
-    <t>Proto -XXXX-Dolichotis</t>
-  </si>
-  <si>
-    <t>Proto -XXXX-Erethizon</t>
-  </si>
-  <si>
-    <t>Proto -XXXX-Hydrochoerus</t>
-  </si>
-  <si>
-    <t>Proto.XX-Ctenomys</t>
-  </si>
-  <si>
-    <t>Proto.XX-Erethizon</t>
-  </si>
-  <si>
-    <t>Proto.XX-Myocastor</t>
-  </si>
-  <si>
-    <t>Proto.XXXx-cavia</t>
-  </si>
-  <si>
-    <t>Proto.XXXx-chinchilla</t>
-  </si>
-  <si>
-    <t>Proto.XXXx-Cuniculus</t>
-  </si>
-  <si>
-    <t>Proto.XXYZ-Cuniculus</t>
-  </si>
-  <si>
-    <t>Proto.XXXx-Myocaster</t>
-  </si>
-  <si>
-    <t>Proto.XXXx-octodon</t>
-  </si>
-  <si>
-    <t>Proto.XXYZ-Dolichotis</t>
-  </si>
-  <si>
-    <t>Proto.XXZ-Capromys</t>
-  </si>
-  <si>
-    <t>Proto.XXX-Capromys</t>
-  </si>
-  <si>
-    <t>Proto.XXZ-Dinomys</t>
-  </si>
-  <si>
-    <t>Proto.XZXY-Micronycteris</t>
-  </si>
-  <si>
-    <t>Proto.XXXx-Micronycteris</t>
-  </si>
-  <si>
-    <t>Proto.XZXY-Octomys</t>
-  </si>
-  <si>
-    <t>Proto.XX-Octodon</t>
-  </si>
-  <si>
-    <t>Proto.XX-Octomys</t>
-  </si>
-  <si>
-    <t>Proto.XX-Carollia</t>
-  </si>
-  <si>
-    <t>Proto.XZXY-Pteronotus</t>
-  </si>
-  <si>
-    <t>Proto.14-Tamandua</t>
-  </si>
-  <si>
-    <t>Proto.102-Tamandua</t>
-  </si>
-  <si>
-    <t>Proto.XX-Microgale</t>
-  </si>
-  <si>
-    <t>Proto.XXXx-Orycteropus</t>
-  </si>
-  <si>
-    <t>Proto.zXXx-Orycteropus</t>
-  </si>
-  <si>
-    <t>Proto.XX-Trichechus</t>
-  </si>
-  <si>
-    <t>Proto.ZXX-Trichecus</t>
-  </si>
-  <si>
-    <t>Proto.XX-Phascolarctos</t>
-  </si>
-  <si>
-    <t>proto.XXX-Phascolarctos</t>
-  </si>
-  <si>
-    <t>proto.XZXY-Phascolarctos</t>
-  </si>
-  <si>
-    <t>proto.ZXX-Phascolarctos</t>
-  </si>
-  <si>
-    <t>proto.ZZX-Phascolarctos</t>
-  </si>
-  <si>
-    <t>proto.XXYZ-Phascolarctos</t>
-  </si>
-  <si>
-    <t>proto.110-Gymnobelideus</t>
-  </si>
-  <si>
-    <t>proto.XXXx-Gymnobelideus</t>
-  </si>
-  <si>
-    <t>proto-XXXX-Gymnobelideus</t>
-  </si>
-  <si>
-    <t>proto.XXZ-Gymnobelideus</t>
-  </si>
-  <si>
-    <t>proto.XZXY-Gymnobelideus</t>
-  </si>
-  <si>
-    <t>proto.XXZ-Macropus</t>
-  </si>
-  <si>
-    <t>proto.XXXx-macropus</t>
-  </si>
-  <si>
-    <t>proto.XXYZ-Macropus</t>
-  </si>
-  <si>
-    <t>proto.XZXY-Macropus</t>
-  </si>
-  <si>
-    <t>proto.XX_Sarcophilus</t>
-  </si>
-  <si>
-    <t>proto.110-Sarcophilus</t>
-  </si>
-  <si>
-    <t>proto.118-Sarcophilus</t>
-  </si>
-  <si>
-    <t>proto.119-Sarcophilus</t>
-  </si>
-  <si>
-    <t>proto.XX-Sarcophilus</t>
-  </si>
-  <si>
-    <t>proto.ZXX-Vombatus</t>
-  </si>
-  <si>
-    <t>proto.XX-thylacine</t>
-  </si>
-  <si>
-    <t>proto.XZXY-Monodelphis</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="90">
   <si>
     <t>proto.101-Monodelphis</t>
   </si>
   <si>
-    <t>Proto.11-Monodelphis</t>
-  </si>
-  <si>
-    <t>Proto.12-Monodelphis</t>
-  </si>
-  <si>
-    <t>Proto.13-Monodelphis</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -309,9 +111,6 @@
     <t>fasta-refseqs-proto-epv-con</t>
   </si>
   <si>
-    <t>Proto.112-afrotheria</t>
-  </si>
-  <si>
     <t>Parvovirinae</t>
   </si>
   <si>
@@ -346,6 +145,165 @@
   </si>
   <si>
     <t>Mus spretus</t>
+  </si>
+  <si>
+    <t>proto.1-rattus-con</t>
+  </si>
+  <si>
+    <t>proto.2-mus_spretus</t>
+  </si>
+  <si>
+    <t>proto.3-apodemus</t>
+  </si>
+  <si>
+    <t>proto.4-mus_spicilegus</t>
+  </si>
+  <si>
+    <t>proto.26-cavid</t>
+  </si>
+  <si>
+    <t>proto.27-cavid</t>
+  </si>
+  <si>
+    <t>proto.102-Tamandua</t>
+  </si>
+  <si>
+    <t>proto.103-graphiurus</t>
+  </si>
+  <si>
+    <t>proto.107-Hydrochoerus</t>
+  </si>
+  <si>
+    <t>proto.108-Dinomys</t>
+  </si>
+  <si>
+    <t>proto.111-Afrotheria</t>
+  </si>
+  <si>
+    <t>proto.120-Cavia</t>
+  </si>
+  <si>
+    <t>proto.121-Cavia</t>
+  </si>
+  <si>
+    <t>proto.122-Cavia</t>
+  </si>
+  <si>
+    <t>proto.125-Hydrochoerus</t>
+  </si>
+  <si>
+    <t>proto.126-Octodon</t>
+  </si>
+  <si>
+    <t>proto.127-Myocastor</t>
+  </si>
+  <si>
+    <t>proto.128-Capromys</t>
+  </si>
+  <si>
+    <t>proto.129-Dinomys</t>
+  </si>
+  <si>
+    <t>proto.130-Dinomys</t>
+  </si>
+  <si>
+    <t>proto.131-Ctenomys</t>
+  </si>
+  <si>
+    <t>proto.132-Ctenomys</t>
+  </si>
+  <si>
+    <t>proto.133-Dolichotis</t>
+  </si>
+  <si>
+    <t>proto.134-Dolichotis</t>
+  </si>
+  <si>
+    <t>proto.135-Octomys</t>
+  </si>
+  <si>
+    <t>proto.136-Octomys</t>
+  </si>
+  <si>
+    <t>proto.137-Hydrochoerus</t>
+  </si>
+  <si>
+    <t>proto.138-Hydrochoerus</t>
+  </si>
+  <si>
+    <t>proto.139-Myocastor</t>
+  </si>
+  <si>
+    <t>proto.140-Myocastor</t>
+  </si>
+  <si>
+    <t>proto.141-Erethizon</t>
+  </si>
+  <si>
+    <t>proto.142-Cuniculus</t>
+  </si>
+  <si>
+    <t>proto.143-Cuniculus</t>
+  </si>
+  <si>
+    <t>proto.150-Gymnobelideus</t>
+  </si>
+  <si>
+    <t>proto.151-Macropus</t>
+  </si>
+  <si>
+    <t>proto.151-Phascolarctos</t>
+  </si>
+  <si>
+    <t>proto.152-Sarcophilus</t>
+  </si>
+  <si>
+    <t>proto.153-Macropus</t>
+  </si>
+  <si>
+    <t>proto.154-Phascolarctos</t>
+  </si>
+  <si>
+    <t>proto.155-Gymnobelideus</t>
+  </si>
+  <si>
+    <t>proto.156-Phascolarctos</t>
+  </si>
+  <si>
+    <t>proto.157-Gymnobelideus</t>
+  </si>
+  <si>
+    <t>proto.158-Macropus</t>
+  </si>
+  <si>
+    <t>proto.158-Phascolarctos</t>
+  </si>
+  <si>
+    <t>proto.159-Vombatus</t>
+  </si>
+  <si>
+    <t>proto.160-Macropus</t>
+  </si>
+  <si>
+    <t>proto.161-Macropus</t>
+  </si>
+  <si>
+    <t>proto.162-Gymnobelideus</t>
+  </si>
+  <si>
+    <t>proto.163-Phascolarctos</t>
+  </si>
+  <si>
+    <t>proto.164-Macropus</t>
+  </si>
+  <si>
+    <t>proto.165-Phascolarctos</t>
+  </si>
+  <si>
+    <t>proto.166-Gymnobelideus</t>
+  </si>
+  <si>
+    <t>Proto-B</t>
   </si>
 </sst>
 </file>
@@ -440,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -467,6 +425,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8698D365-2C1A-1149-A6A3-1E01E9655E89}">
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -808,70 +769,70 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -879,48 +840,48 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="6" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="6" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="8" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
@@ -928,51 +889,51 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="6" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="6" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -980,51 +941,51 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="6" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="6" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -1035,2733 +996,2013 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="6" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="6" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
-        <v>103</v>
+      <c r="A6" s="14">
+        <v>26</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>107</v>
+      <c r="A7" s="14">
+        <v>27</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
-        <v>108</v>
+      <c r="A8" s="14">
+        <v>101</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="A9" s="14">
+        <v>102</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
         <v>103</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>107</v>
-      </c>
       <c r="B10" s="12" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>108</v>
+      <c r="A11" s="14">
+        <v>107</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>109</v>
+      <c r="A12" s="14">
+        <v>108</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="A13" s="14">
         <v>111</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
-        <v>99</v>
+      <c r="A14" s="14">
+        <v>120</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>150</v>
+      <c r="A15" s="14">
+        <v>121</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>151</v>
+      <c r="A16" s="14">
+        <v>122</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
-        <v>152</v>
+      <c r="A17" s="14">
+        <v>125</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <v>153</v>
+      <c r="A18" s="14">
+        <v>126</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
-        <v>154</v>
+      <c r="A19" s="14">
+        <v>127</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
-        <v>155</v>
+      <c r="A20" s="14">
+        <v>128</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
-        <v>156</v>
+      <c r="A21" s="14">
+        <v>129</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
-        <v>157</v>
+      <c r="A22" s="14">
+        <v>130</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
-        <v>158</v>
+      <c r="A23" s="14">
+        <v>131</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
-        <v>159</v>
+      <c r="A24" s="14">
+        <v>132</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
-        <v>160</v>
+      <c r="A25" s="14">
+        <v>133</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>161</v>
+      <c r="A26" s="14">
+        <v>134</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
-        <v>162</v>
+      <c r="A27" s="14">
+        <v>135</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
-        <v>163</v>
+      <c r="A28" s="14">
+        <v>136</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
-        <v>164</v>
+      <c r="A29" s="14">
+        <v>137</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
-        <v>165</v>
+      <c r="A30" s="14">
+        <v>138</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
-        <v>166</v>
+      <c r="A31" s="14">
+        <v>139</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
-        <v>167</v>
+      <c r="A32" s="14">
+        <v>140</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
-        <v>168</v>
+      <c r="A33" s="14">
+        <v>141</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
-        <v>169</v>
+      <c r="A34" s="14">
+        <v>142</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
-        <v>170</v>
+      <c r="A35" s="14">
+        <v>143</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
-        <v>145</v>
+      <c r="A36" s="14">
+        <v>150</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
-        <v>146</v>
+      <c r="A37" s="14">
+        <v>151</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
-        <v>14</v>
+      <c r="A38" s="14">
+        <v>151</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
-        <v>102</v>
+      <c r="A39" s="14">
+        <v>152</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I39" s="12"/>
       <c r="J39" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
-        <v>112</v>
+      <c r="A40" s="14">
+        <v>153</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I40" s="12"/>
       <c r="J40" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="12">
-        <v>113</v>
+      <c r="A41" s="14">
+        <v>154</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="12">
-        <v>114</v>
+      <c r="A42" s="14">
+        <v>155</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I42" s="12"/>
       <c r="J42" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="12">
-        <v>115</v>
+      <c r="A43" s="14">
+        <v>156</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I43" s="12"/>
       <c r="J43" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="12">
-        <v>116</v>
+      <c r="A44" s="14">
+        <v>157</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I44" s="12"/>
       <c r="J44" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="12">
-        <v>117</v>
+      <c r="A45" s="14">
+        <v>158</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="12">
-        <v>200</v>
+      <c r="A46" s="14">
+        <v>158</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="12">
-        <v>201</v>
+      <c r="A47" s="14">
+        <v>159</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I47" s="12"/>
       <c r="J47" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="12">
-        <v>202</v>
+      <c r="A48" s="14">
+        <v>160</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I48" s="12"/>
       <c r="J48" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="12">
-        <v>203</v>
+      <c r="A49" s="14">
+        <v>161</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="12">
-        <v>204</v>
+      <c r="A50" s="14">
+        <v>162</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I50" s="12"/>
       <c r="J50" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="12">
-        <v>205</v>
+      <c r="A51" s="14">
+        <v>163</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="12">
-        <v>206</v>
+      <c r="A52" s="14">
+        <v>164</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O52" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" s="12">
-        <v>207</v>
+      <c r="A53" s="14">
+        <v>165</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N53" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O53" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" s="12">
-        <v>208</v>
+      <c r="A54" s="14">
+        <v>166</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I54" s="12"/>
       <c r="J54" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O54" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" s="12">
-        <v>209</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G55" s="12"/>
-      <c r="H55" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I55" s="12"/>
-      <c r="J55" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M55" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N55" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O55" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="12">
-        <v>210</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G56" s="12"/>
-      <c r="H56" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I56" s="12"/>
-      <c r="J56" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L56" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N56" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O56" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="12">
-        <v>211</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G57" s="12"/>
-      <c r="H57" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I57" s="12"/>
-      <c r="J57" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N57" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O57" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="12">
-        <v>212</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I58" s="12"/>
-      <c r="J58" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L58" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N58" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O58" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="12">
-        <v>213</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G59" s="12"/>
-      <c r="H59" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I59" s="12"/>
-      <c r="J59" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L59" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N59" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O59" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="12">
-        <v>214</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I60" s="12"/>
-      <c r="J60" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L60" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N60" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O60" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="12">
-        <v>215</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I61" s="12"/>
-      <c r="J61" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L61" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M61" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N61" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O61" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="12">
-        <v>216</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G62" s="12"/>
-      <c r="H62" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I62" s="12"/>
-      <c r="J62" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L62" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M62" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N62" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O62" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="12">
-        <v>217</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I63" s="12"/>
-      <c r="J63" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L63" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M63" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N63" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O63" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" s="12">
-        <v>218</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G64" s="12"/>
-      <c r="H64" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I64" s="12"/>
-      <c r="J64" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L64" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N64" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O64" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="12">
-        <v>219</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I65" s="12"/>
-      <c r="J65" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L65" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N65" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O65" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" s="12">
-        <v>220</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G66" s="12"/>
-      <c r="H66" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I66" s="12"/>
-      <c r="J66" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L66" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M66" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N66" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O66" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="12">
-        <v>221</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G67" s="12"/>
-      <c r="H67" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I67" s="12"/>
-      <c r="J67" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N67" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O67" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="12">
-        <v>222</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G68" s="12"/>
-      <c r="H68" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I68" s="12"/>
-      <c r="J68" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L68" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M68" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N68" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O68" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="12">
-        <v>223</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G69" s="12"/>
-      <c r="H69" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I69" s="12"/>
-      <c r="J69" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N69" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O69" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" s="12">
-        <v>224</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G70" s="12"/>
-      <c r="H70" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I70" s="12"/>
-      <c r="J70" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L70" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M70" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N70" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O70" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" s="12">
-        <v>225</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G71" s="12"/>
-      <c r="H71" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I71" s="12"/>
-      <c r="J71" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L71" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M71" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N71" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O71" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" s="12">
-        <v>226</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G72" s="12"/>
-      <c r="H72" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I72" s="12"/>
-      <c r="J72" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L72" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M72" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N72" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O72" s="10" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/eve/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-proto-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6775ABB5-EDE9-0749-B7DE-9F83B821C707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2850876-9970-A84D-AF73-B7F23519FB58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{C5AF922A-17B4-3E45-B32D-16E24B21D133}"/>
   </bookViews>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8698D365-2C1A-1149-A6A3-1E01E9655E89}">
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="A1:V54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
